--- a/NPB3.3.1/NPB3.3-OMP/dstat_omp.xlsx
+++ b/NPB3.3.1/NPB3.3-OMP/dstat_omp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cpu" sheetId="1" r:id="rId1"/>
@@ -804,11 +804,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2073758672"/>
-        <c:axId val="-2049487984"/>
+        <c:axId val="2105371328"/>
+        <c:axId val="2136922400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073758672"/>
+        <c:axId val="2105371328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2049487984"/>
+        <c:crossAx val="2136922400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2049487984"/>
+        <c:axId val="2136922400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +929,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -959,7 +959,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1004,7 +1004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2073758672"/>
+        <c:crossAx val="2105371328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1103,6 +1103,1460 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentagem de Uso do CPU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>usr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>cpu!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cpu!$C$5:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sys</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>cpu!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cpu!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.917</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>idl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>cpu!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cpu!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>74.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wai</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>cpu!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cpu!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hlq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>cpu!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cpu!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cpu!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>slq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>cpu!$B$5:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cpu!$H$5:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2031095808"/>
+        <c:axId val="2088902688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2031095808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088902688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088902688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentagem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2031095808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.05"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentagem de Uso da Mem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>ória</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>memoria!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>used</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>memoria!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>memoria!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.027637248E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.06997504E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.102820864E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.102566912E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>memoria!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>free</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>memoria!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>memoria!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.09310208E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9888683008E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9855837184E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9856091136E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2101836448"/>
+        <c:axId val="2137191808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2101836448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2137191808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2137191808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentagem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101836448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.05"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51462018981142"/>
+          <c:y val="0.931303624762422"/>
+          <c:w val="0.0849676421310694"/>
+          <c:h val="0.0406791338582677"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1117,11 +2571,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Percentagem de Uso da Mem</a:t>
+              <a:t>Uso do</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>ória</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Disco</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1160,37 +2614,50 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>memoria!$C$2</c:f>
+              <c:f>disco!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>used</c:v>
+                  <c:v>read</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>memoria!$B$3:$B$6</c:f>
+              <c:f>disco!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1211,53 +2678,68 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>memoria!$C$3:$C$6</c:f>
+              <c:f>disco!$C$3:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.027637248E9</c:v>
+                  <c:v>11497.393</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.06997504E9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.102820864E9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.102566912E9</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>memoria!$D$2</c:f>
+              <c:f>disco!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>free</c:v>
+                  <c:v>write</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>memoria!$B$3:$B$6</c:f>
+              <c:f>disco!$B$3:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1278,25 +2760,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>memoria!$D$3:$D$6</c:f>
+              <c:f>disco!$D$3:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.09310208E10</c:v>
+                  <c:v>495791.059</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9888683008E10</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9855837184E10</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9856091136E10</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1306,13 +2789,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="-2072872960"/>
-        <c:axId val="-2079591216"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2103450832"/>
+        <c:axId val="2137999552"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-2072872960"/>
+        <c:axId val="2103450832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +2894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079591216"/>
+        <c:crossAx val="2137999552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,7 +2902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079591216"/>
+        <c:axId val="2137999552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,562 +2925,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Percentagem</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2072872960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.05"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Uso do</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Disco</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>disco!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>read</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>disco!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>disco!$C$3:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11497.393</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>disco!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>write</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>disco!$B$3:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>disco!$D$3:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>495791.059</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2146283936"/>
-        <c:axId val="-2137134688"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-2146283936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tempo (segundos)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2137134688"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2137134688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2019,7 +2947,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (k)</a:t>
+                  <a:t> (Bytes)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2035,7 +2963,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -2086,7 +3014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2146283936"/>
+        <c:crossAx val="2103450832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25000.0"/>
@@ -2288,6 +3216,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
@@ -2757,33 +3725,27 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2798,7 +3760,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2806,7 +3768,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2814,17 +3776,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -2833,9 +3792,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -2858,35 +3816,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2895,33 +3853,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2937,21 +3894,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2961,23 +3913,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2986,64 +3937,156 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3051,102 +4094,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3154,17 +4101,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3173,12 +4120,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3187,14 +4131,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3203,10 +4147,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -3215,20 +4156,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3237,10 +4177,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -3249,19 +4186,481 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3791,6 +5190,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3841,13 +5270,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4146,7 +5575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -4374,7 +5803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D6" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
